--- a/data/pca/factorExposure/factorExposure_2010-04-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-09.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0138711629647846</v>
+        <v>-0.01705747089788881</v>
       </c>
       <c r="C2">
-        <v>-0.007287485660790122</v>
+        <v>-0.0009646904939964721</v>
       </c>
       <c r="D2">
-        <v>0.01254024448895345</v>
+        <v>-0.008517121058013694</v>
       </c>
       <c r="E2">
-        <v>-0.01083598819261791</v>
+        <v>-0.0001148594426173148</v>
       </c>
       <c r="F2">
-        <v>0.01707904886313616</v>
+        <v>-0.01050018199388543</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1199691299759829</v>
+        <v>-0.0930648396665648</v>
       </c>
       <c r="C4">
-        <v>0.07540437618784152</v>
+        <v>-0.01615435279377491</v>
       </c>
       <c r="D4">
-        <v>0.01106294042418732</v>
+        <v>-0.08434504454900232</v>
       </c>
       <c r="E4">
-        <v>0.008361888657956448</v>
+        <v>0.03071948526790159</v>
       </c>
       <c r="F4">
-        <v>0.0005574132113123022</v>
+        <v>0.03171650527812251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1210147374341896</v>
+        <v>-0.1540577344828814</v>
       </c>
       <c r="C6">
-        <v>-1.514652776910971e-05</v>
+        <v>-0.02454188062833126</v>
       </c>
       <c r="D6">
-        <v>0.01620603603546255</v>
+        <v>0.02260927058242</v>
       </c>
       <c r="E6">
-        <v>-0.03216312089649814</v>
+        <v>0.008553887556586886</v>
       </c>
       <c r="F6">
-        <v>-0.05488476608150818</v>
+        <v>0.0446880752024169</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06945656255030686</v>
+        <v>-0.05928380998306564</v>
       </c>
       <c r="C7">
-        <v>0.06062382176894601</v>
+        <v>0.0007994741124172149</v>
       </c>
       <c r="D7">
-        <v>0.04371790250292219</v>
+        <v>-0.05221157801831183</v>
       </c>
       <c r="E7">
-        <v>-0.0240637595587847</v>
+        <v>0.01507924413876472</v>
       </c>
       <c r="F7">
-        <v>0.03444208684192604</v>
+        <v>0.05168721760637253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05475685845919362</v>
+        <v>-0.05817667860450174</v>
       </c>
       <c r="C8">
-        <v>0.03248849990421506</v>
+        <v>0.01316851752253478</v>
       </c>
       <c r="D8">
-        <v>0.02572929412275982</v>
+        <v>-0.0321907433680911</v>
       </c>
       <c r="E8">
-        <v>0.007338407101518354</v>
+        <v>0.01557675114214767</v>
       </c>
       <c r="F8">
-        <v>-0.02220914385707186</v>
+        <v>-0.02859311053700274</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08306549681111283</v>
+        <v>-0.07087185881511297</v>
       </c>
       <c r="C9">
-        <v>0.05762325379951636</v>
+        <v>-0.0121688042326889</v>
       </c>
       <c r="D9">
-        <v>0.0165135497312529</v>
+        <v>-0.08399351698491778</v>
       </c>
       <c r="E9">
-        <v>0.01717671826414119</v>
+        <v>0.02519838776229657</v>
       </c>
       <c r="F9">
-        <v>0.008525729681894405</v>
+        <v>0.05450113746652551</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1080124475067824</v>
+        <v>-0.09514705792801506</v>
       </c>
       <c r="C10">
-        <v>-0.1739309198489183</v>
+        <v>-0.01782557019969628</v>
       </c>
       <c r="D10">
-        <v>-0.01733532001878027</v>
+        <v>0.1711771782352982</v>
       </c>
       <c r="E10">
-        <v>-0.008398326718663189</v>
+        <v>-0.0396702035902045</v>
       </c>
       <c r="F10">
-        <v>0.03931131272693539</v>
+        <v>-0.05270332758045251</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07716073451272701</v>
+        <v>-0.0873678983745278</v>
       </c>
       <c r="C11">
-        <v>0.05513403665544758</v>
+        <v>-0.01154829324834126</v>
       </c>
       <c r="D11">
-        <v>0.03706808322360057</v>
+        <v>-0.1144357588037518</v>
       </c>
       <c r="E11">
-        <v>0.0186709638090158</v>
+        <v>0.04957382759463626</v>
       </c>
       <c r="F11">
-        <v>-0.009913080523044994</v>
+        <v>0.02062490184162553</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07876898428149069</v>
+        <v>-0.09187472271282356</v>
       </c>
       <c r="C12">
-        <v>0.07797983700971958</v>
+        <v>-0.00917665418743363</v>
       </c>
       <c r="D12">
-        <v>0.04883893152759104</v>
+        <v>-0.1232858005778069</v>
       </c>
       <c r="E12">
-        <v>0.06328052393636614</v>
+        <v>0.0486694763061556</v>
       </c>
       <c r="F12">
-        <v>0.02302750254950004</v>
+        <v>0.02150296962110346</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03072305836173341</v>
+        <v>-0.04288477335019184</v>
       </c>
       <c r="C13">
-        <v>0.03035168562100997</v>
+        <v>-0.003751378264643692</v>
       </c>
       <c r="D13">
-        <v>0.003598355825173316</v>
+        <v>-0.04718057087823915</v>
       </c>
       <c r="E13">
-        <v>-0.01987714094795286</v>
+        <v>-0.01103368182196027</v>
       </c>
       <c r="F13">
-        <v>0.01583578798648825</v>
+        <v>0.01386564691013747</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03935905311179824</v>
+        <v>-0.02232260169264866</v>
       </c>
       <c r="C14">
-        <v>0.02621808511873619</v>
+        <v>-0.0142808754764111</v>
       </c>
       <c r="D14">
-        <v>-0.0001789148432352483</v>
+        <v>-0.0320481306248183</v>
       </c>
       <c r="E14">
-        <v>0.02236297798883209</v>
+        <v>0.01919117890683246</v>
       </c>
       <c r="F14">
-        <v>0.004070624649543849</v>
+        <v>0.02001512731168291</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01617408731656017</v>
+        <v>-0.0314512029626367</v>
       </c>
       <c r="C15">
-        <v>0.007290138006059724</v>
+        <v>-0.005439789501800961</v>
       </c>
       <c r="D15">
-        <v>0.005020451956650874</v>
+        <v>-0.04499732821235394</v>
       </c>
       <c r="E15">
-        <v>-0.04322964049146998</v>
+        <v>0.008950719794715928</v>
       </c>
       <c r="F15">
-        <v>0.01670477940382754</v>
+        <v>0.0305039230123938</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08500631481913444</v>
+        <v>-0.07326623057919447</v>
       </c>
       <c r="C16">
-        <v>0.063801454544422</v>
+        <v>-0.003039175391410888</v>
       </c>
       <c r="D16">
-        <v>0.04817158256727302</v>
+        <v>-0.1174501886621012</v>
       </c>
       <c r="E16">
-        <v>0.04014438040320956</v>
+        <v>0.06383310127382112</v>
       </c>
       <c r="F16">
-        <v>-0.002981082102747944</v>
+        <v>0.02969019229038975</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02351293581484164</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003458903433155085</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01759415433388361</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.009271181880019568</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01801003407085155</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04930857573395876</v>
+        <v>-0.06075563828632621</v>
       </c>
       <c r="C20">
-        <v>0.03484548432652319</v>
+        <v>-0.0007432746066494597</v>
       </c>
       <c r="D20">
-        <v>-0.01314970217061289</v>
+        <v>-0.07583253572704811</v>
       </c>
       <c r="E20">
-        <v>-0.02706633100213847</v>
+        <v>0.05562656240418831</v>
       </c>
       <c r="F20">
-        <v>0.008442440864982425</v>
+        <v>0.02946059195882397</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02967530772841853</v>
+        <v>-0.03886546681389968</v>
       </c>
       <c r="C21">
-        <v>0.01216777522075119</v>
+        <v>-0.006926369637378495</v>
       </c>
       <c r="D21">
-        <v>-0.01940205660740478</v>
+        <v>-0.03759056232611308</v>
       </c>
       <c r="E21">
-        <v>0.01408363979457404</v>
+        <v>-0.007396911316471464</v>
       </c>
       <c r="F21">
-        <v>-0.01991335937884473</v>
+        <v>-0.01852357595288408</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02943601294950335</v>
+        <v>-0.04261075495024665</v>
       </c>
       <c r="C22">
-        <v>-0.02159500871426468</v>
+        <v>-0.0004515090339977574</v>
       </c>
       <c r="D22">
-        <v>0.03277307334735107</v>
+        <v>-0.001757059703900208</v>
       </c>
       <c r="E22">
-        <v>-0.6049711658893495</v>
+        <v>0.02965827387975508</v>
       </c>
       <c r="F22">
-        <v>0.1748719992267985</v>
+        <v>-0.008988145791651339</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02967048749092285</v>
+        <v>-0.04266471915448215</v>
       </c>
       <c r="C23">
-        <v>-0.02105142862078945</v>
+        <v>-0.0004737643508201356</v>
       </c>
       <c r="D23">
-        <v>0.03416132957509937</v>
+        <v>-0.001884684165142295</v>
       </c>
       <c r="E23">
-        <v>-0.6083753155976599</v>
+        <v>0.03001812029445421</v>
       </c>
       <c r="F23">
-        <v>0.1738237243267896</v>
+        <v>-0.008534243362840423</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08494177247949353</v>
+        <v>-0.07967115511211569</v>
       </c>
       <c r="C24">
-        <v>0.06438082621064428</v>
+        <v>-0.003237304082509443</v>
       </c>
       <c r="D24">
-        <v>0.02919024189725268</v>
+        <v>-0.1186503832932983</v>
       </c>
       <c r="E24">
-        <v>0.03345142630782082</v>
+        <v>0.05164391696345497</v>
       </c>
       <c r="F24">
-        <v>0.001361732475711357</v>
+        <v>0.02266638196536097</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09068441057534288</v>
+        <v>-0.08456623811078928</v>
       </c>
       <c r="C25">
-        <v>0.06142420107525954</v>
+        <v>-0.005387253830846114</v>
       </c>
       <c r="D25">
-        <v>0.04172958231922494</v>
+        <v>-0.1066877321527678</v>
       </c>
       <c r="E25">
-        <v>0.06519867226262878</v>
+        <v>0.03477679330280595</v>
       </c>
       <c r="F25">
-        <v>0.01591904865832766</v>
+        <v>0.03018864535683164</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04116103038650372</v>
+        <v>-0.05446706573492898</v>
       </c>
       <c r="C26">
-        <v>-0.004473512101913719</v>
+        <v>-0.01486675845441024</v>
       </c>
       <c r="D26">
-        <v>-0.01297775409151488</v>
+        <v>-0.03801570904975861</v>
       </c>
       <c r="E26">
-        <v>-0.01293920976632933</v>
+        <v>0.02792466966447738</v>
       </c>
       <c r="F26">
-        <v>-0.01347127927392937</v>
+        <v>-0.01194813372433069</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1197682984538751</v>
+        <v>-0.1436892273998018</v>
       </c>
       <c r="C28">
-        <v>-0.3174870157190646</v>
+        <v>-0.01610739622235409</v>
       </c>
       <c r="D28">
-        <v>0.004871283072256823</v>
+        <v>0.2656814728031763</v>
       </c>
       <c r="E28">
-        <v>0.03162854730294441</v>
+        <v>-0.06934011037041829</v>
       </c>
       <c r="F28">
-        <v>-0.01575935516622305</v>
+        <v>0.02955579978813927</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03366271615556347</v>
+        <v>-0.02720575062513119</v>
       </c>
       <c r="C29">
-        <v>0.0197936404950781</v>
+        <v>-0.008696381678027559</v>
       </c>
       <c r="D29">
-        <v>0.01074465168129976</v>
+        <v>-0.03060735696433679</v>
       </c>
       <c r="E29">
-        <v>0.03722812854248343</v>
+        <v>0.01217222050955036</v>
       </c>
       <c r="F29">
-        <v>0.03887710191625135</v>
+        <v>-0.011390768346832</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1045551847922476</v>
+        <v>-0.06257000901536638</v>
       </c>
       <c r="C30">
-        <v>0.0939850231990275</v>
+        <v>-0.004470794345184477</v>
       </c>
       <c r="D30">
-        <v>0.05452858935005733</v>
+        <v>-0.08658030603349752</v>
       </c>
       <c r="E30">
-        <v>0.04469507657291568</v>
+        <v>0.02508678253363082</v>
       </c>
       <c r="F30">
-        <v>-0.04548159349516694</v>
+        <v>0.1056203696022719</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03061422299615607</v>
+        <v>-0.04826810414746138</v>
       </c>
       <c r="C31">
-        <v>0.03395448431135244</v>
+        <v>-0.0149526559607847</v>
       </c>
       <c r="D31">
-        <v>0.001596548121543437</v>
+        <v>-0.02820216051214096</v>
       </c>
       <c r="E31">
-        <v>-0.002095006058250875</v>
+        <v>0.02723072459249803</v>
       </c>
       <c r="F31">
-        <v>0.005516852658476029</v>
+        <v>-0.004454969338716584</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05867572885972586</v>
+        <v>-0.04810740844662614</v>
       </c>
       <c r="C32">
-        <v>0.01367823253476309</v>
+        <v>0.0001748840754357927</v>
       </c>
       <c r="D32">
-        <v>-0.0108286806307102</v>
+        <v>-0.03071274782389218</v>
       </c>
       <c r="E32">
-        <v>0.06613020738209284</v>
+        <v>0.03024713492289385</v>
       </c>
       <c r="F32">
-        <v>-0.07513729150540865</v>
+        <v>0.002825923374830208</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0929472119704258</v>
+        <v>-0.08986415029536837</v>
       </c>
       <c r="C33">
-        <v>0.06457976498830263</v>
+        <v>-0.008703923921593065</v>
       </c>
       <c r="D33">
-        <v>0.07940049836320956</v>
+        <v>-0.09481047308398269</v>
       </c>
       <c r="E33">
-        <v>0.02448319528753053</v>
+        <v>0.04745501228064314</v>
       </c>
       <c r="F33">
-        <v>0.009267469746272022</v>
+        <v>0.04198651933573595</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07259055219103283</v>
+        <v>-0.06734441045176195</v>
       </c>
       <c r="C34">
-        <v>0.05780245770806276</v>
+        <v>-0.01179234122746022</v>
       </c>
       <c r="D34">
-        <v>0.03303246600180341</v>
+        <v>-0.09897415319748773</v>
       </c>
       <c r="E34">
-        <v>0.03678086880662711</v>
+        <v>0.03619242245439662</v>
       </c>
       <c r="F34">
-        <v>0.008097459119744511</v>
+        <v>0.04046467223208094</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01041916087048078</v>
+        <v>-0.02426618118872435</v>
       </c>
       <c r="C35">
-        <v>0.01849638150322293</v>
+        <v>-0.002421167145157475</v>
       </c>
       <c r="D35">
-        <v>0.004588658225492711</v>
+        <v>-0.01195167771363873</v>
       </c>
       <c r="E35">
-        <v>0.001262985111156241</v>
+        <v>0.01137427743092064</v>
       </c>
       <c r="F35">
-        <v>0.01715272537391805</v>
+        <v>0.009098289678006542</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02680059485446074</v>
+        <v>-0.02436906107551661</v>
       </c>
       <c r="C36">
-        <v>0.01502655342272461</v>
+        <v>-0.007213106333097444</v>
       </c>
       <c r="D36">
-        <v>0.01095191080819984</v>
+        <v>-0.0370349228542711</v>
       </c>
       <c r="E36">
-        <v>-0.008195475107922758</v>
+        <v>0.0181839537127596</v>
       </c>
       <c r="F36">
-        <v>-0.004679673135340634</v>
+        <v>0.01318678232665978</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008253719430811969</v>
+        <v>-0.001568672715067344</v>
       </c>
       <c r="C38">
-        <v>0.01049936702832197</v>
+        <v>-0.0002464881525292131</v>
       </c>
       <c r="D38">
-        <v>0.007051577116500024</v>
+        <v>-0.001142147362133534</v>
       </c>
       <c r="E38">
-        <v>-0.01980628075925022</v>
+        <v>0.001394928435864879</v>
       </c>
       <c r="F38">
-        <v>0.03382539021560131</v>
+        <v>-0.001061927285106552</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1214899659212643</v>
+        <v>-0.1079424807728177</v>
       </c>
       <c r="C39">
-        <v>0.1080203720934564</v>
+        <v>-0.01676822803977958</v>
       </c>
       <c r="D39">
-        <v>0.07872414481506111</v>
+        <v>-0.154350131636405</v>
       </c>
       <c r="E39">
-        <v>0.1421508049111412</v>
+        <v>0.06214935295263133</v>
       </c>
       <c r="F39">
-        <v>0.007821795337204949</v>
+        <v>0.02727166014384318</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.006236915181160837</v>
+        <v>-0.03716449457301534</v>
       </c>
       <c r="C40">
-        <v>0.02614542236681089</v>
+        <v>-0.007285308085075349</v>
       </c>
       <c r="D40">
-        <v>-0.01076250014526733</v>
+        <v>-0.03146521016174431</v>
       </c>
       <c r="E40">
-        <v>-0.06828738283035157</v>
+        <v>0.003527385014647094</v>
       </c>
       <c r="F40">
-        <v>0.03997903776656681</v>
+        <v>-0.01299283943392824</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02615943685263506</v>
+        <v>-0.02631536824887704</v>
       </c>
       <c r="C41">
-        <v>0.003091808642162034</v>
+        <v>-0.006575805316761707</v>
       </c>
       <c r="D41">
-        <v>-0.002983754788329205</v>
+        <v>-0.01163507569424205</v>
       </c>
       <c r="E41">
-        <v>0.006379621743417756</v>
+        <v>0.01269027660385189</v>
       </c>
       <c r="F41">
-        <v>0.008570697214262684</v>
+        <v>-0.008747893409004689</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03686676089425327</v>
+        <v>-0.04061267704554727</v>
       </c>
       <c r="C43">
-        <v>0.006197447473719746</v>
+        <v>-0.006753739618064135</v>
       </c>
       <c r="D43">
-        <v>0.01856298857931489</v>
+        <v>-0.02135031608188222</v>
       </c>
       <c r="E43">
-        <v>0.002666481787555747</v>
+        <v>0.02495022949065009</v>
       </c>
       <c r="F43">
-        <v>0.000975547135678992</v>
+        <v>-0.01254499773788115</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1208740131182594</v>
+        <v>-0.07594921835449034</v>
       </c>
       <c r="C44">
-        <v>0.1392359906230501</v>
+        <v>-0.0217963746540087</v>
       </c>
       <c r="D44">
-        <v>0.07407590587444721</v>
+        <v>-0.0949179191496656</v>
       </c>
       <c r="E44">
-        <v>-0.09614175358127292</v>
+        <v>0.07598922562369909</v>
       </c>
       <c r="F44">
-        <v>0.1092562895364615</v>
+        <v>0.188174197197819</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0183093329442067</v>
+        <v>-0.02221245053915309</v>
       </c>
       <c r="C46">
-        <v>-0.01530416012390866</v>
+        <v>-0.003801383752893602</v>
       </c>
       <c r="D46">
-        <v>0.01661562759898126</v>
+        <v>-0.01195541036006787</v>
       </c>
       <c r="E46">
-        <v>-0.02222117403153278</v>
+        <v>0.02396152880954467</v>
       </c>
       <c r="F46">
-        <v>0.03031162266153353</v>
+        <v>0.001070012080176205</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03736615456590747</v>
+        <v>-0.05188927474699722</v>
       </c>
       <c r="C47">
-        <v>0.02333917062069568</v>
+        <v>-0.003229803577148669</v>
       </c>
       <c r="D47">
-        <v>-0.002992324539966227</v>
+        <v>-0.01296565060192212</v>
       </c>
       <c r="E47">
-        <v>0.006798993257779776</v>
+        <v>0.02201579715716159</v>
       </c>
       <c r="F47">
-        <v>0.001877419480847932</v>
+        <v>-0.04532617839728138</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04372885813335836</v>
+        <v>-0.04751997246787707</v>
       </c>
       <c r="C48">
-        <v>0.02274122160593328</v>
+        <v>-0.002736231007022197</v>
       </c>
       <c r="D48">
-        <v>0.004443962123456486</v>
+        <v>-0.0486596418944544</v>
       </c>
       <c r="E48">
-        <v>0.009741749111729614</v>
+        <v>-0.004083983511608136</v>
       </c>
       <c r="F48">
-        <v>0.01871798453920593</v>
+        <v>0.01069344476758215</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2256691025401858</v>
+        <v>-0.2026025352475474</v>
       </c>
       <c r="C49">
-        <v>-0.006517290562254411</v>
+        <v>-0.01771345027749588</v>
       </c>
       <c r="D49">
-        <v>-0.04404821857216697</v>
+        <v>0.01013473892003782</v>
       </c>
       <c r="E49">
-        <v>0.02250298151143897</v>
+        <v>0.03269672889862969</v>
       </c>
       <c r="F49">
-        <v>0.04559282091651921</v>
+        <v>0.03153636352609165</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03867566387359098</v>
+        <v>-0.04817935250448193</v>
       </c>
       <c r="C50">
-        <v>0.02855773394849507</v>
+        <v>-0.011050173738352</v>
       </c>
       <c r="D50">
-        <v>-0.007880645221958742</v>
+        <v>-0.02666270900830231</v>
       </c>
       <c r="E50">
-        <v>0.01120064378394402</v>
+        <v>0.02974954074620436</v>
       </c>
       <c r="F50">
-        <v>0.003480547872766621</v>
+        <v>0.008914390551549318</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01256668252802119</v>
+        <v>-0.002340065083347908</v>
       </c>
       <c r="C51">
-        <v>-0.0200624423045074</v>
+        <v>-0.0006253976584278344</v>
       </c>
       <c r="D51">
-        <v>0.01546753813997775</v>
+        <v>0.00275766823695153</v>
       </c>
       <c r="E51">
-        <v>-0.005414109384180943</v>
+        <v>-0.0004377868519644876</v>
       </c>
       <c r="F51">
-        <v>0.01112428970285789</v>
+        <v>0.005454301715885151</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1032989953111041</v>
+        <v>-0.1447228727234195</v>
       </c>
       <c r="C52">
-        <v>0.07900884810812292</v>
+        <v>-0.01366816766320153</v>
       </c>
       <c r="D52">
-        <v>0.007220347433281313</v>
+        <v>-0.05167922625327565</v>
       </c>
       <c r="E52">
-        <v>0.01235347200594504</v>
+        <v>0.02403089328446792</v>
       </c>
       <c r="F52">
-        <v>0.01317817457917034</v>
+        <v>0.03223852098665309</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.162010459076841</v>
+        <v>-0.1741721269152665</v>
       </c>
       <c r="C53">
-        <v>0.04175507742993843</v>
+        <v>-0.01647371965826831</v>
       </c>
       <c r="D53">
-        <v>0.001388971068150545</v>
+        <v>-0.01152823533815726</v>
       </c>
       <c r="E53">
-        <v>-0.01886471373659207</v>
+        <v>0.03541243029473018</v>
       </c>
       <c r="F53">
-        <v>0.03247507290972277</v>
+        <v>0.06387664146779222</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05102606147524238</v>
+        <v>-0.02142352156028321</v>
       </c>
       <c r="C54">
-        <v>0.04451760792092072</v>
+        <v>-0.01235809301046988</v>
       </c>
       <c r="D54">
-        <v>0.003751189442319681</v>
+        <v>-0.03343818087060305</v>
       </c>
       <c r="E54">
-        <v>-0.02395928449816696</v>
+        <v>0.01631280091319195</v>
       </c>
       <c r="F54">
-        <v>0.008909317380787925</v>
+        <v>-0.00495387691976881</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0865185214714486</v>
+        <v>-0.1142626362521528</v>
       </c>
       <c r="C55">
-        <v>0.03358099425870688</v>
+        <v>-0.01544681538538837</v>
       </c>
       <c r="D55">
-        <v>0.05969013265716725</v>
+        <v>-0.01062661629416208</v>
       </c>
       <c r="E55">
-        <v>0.02642329133112813</v>
+        <v>0.03001845374106166</v>
       </c>
       <c r="F55">
-        <v>0.01973335749343307</v>
+        <v>0.04343720330658667</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1568274525514184</v>
+        <v>-0.1778950115223106</v>
       </c>
       <c r="C56">
-        <v>0.05751569318365636</v>
+        <v>-0.01395681577229286</v>
       </c>
       <c r="D56">
-        <v>0.02176349712880659</v>
+        <v>-0.00713309582149852</v>
       </c>
       <c r="E56">
-        <v>0.01256151397287297</v>
+        <v>0.03934678410177266</v>
       </c>
       <c r="F56">
-        <v>0.06203112344142216</v>
+        <v>0.03904889649009393</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04977456094022031</v>
+        <v>-0.04651557851875986</v>
       </c>
       <c r="C58">
-        <v>0.02553800695723041</v>
+        <v>-0.001571357539527078</v>
       </c>
       <c r="D58">
-        <v>-0.01408143894590715</v>
+        <v>-0.06642719632329325</v>
       </c>
       <c r="E58">
-        <v>-0.05112061332791398</v>
+        <v>0.02425507112544395</v>
       </c>
       <c r="F58">
-        <v>0.02656275882055783</v>
+        <v>-0.04274332482772535</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.180385443682939</v>
+        <v>-0.1725984498648653</v>
       </c>
       <c r="C59">
-        <v>-0.2505268543528028</v>
+        <v>-0.01703850397567517</v>
       </c>
       <c r="D59">
-        <v>0.03174445688116723</v>
+        <v>0.2226364896219668</v>
       </c>
       <c r="E59">
-        <v>0.04098892967919332</v>
+        <v>-0.04907356042549109</v>
       </c>
       <c r="F59">
-        <v>0.009474524703625527</v>
+        <v>-0.032225316468389</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2634605412216039</v>
+        <v>-0.2361566295578479</v>
       </c>
       <c r="C60">
-        <v>0.1716328702529435</v>
+        <v>0.004012477127787261</v>
       </c>
       <c r="D60">
-        <v>-0.02914775683072651</v>
+        <v>-0.04816840322951541</v>
       </c>
       <c r="E60">
-        <v>0.06474529914117835</v>
+        <v>0.007594788444002765</v>
       </c>
       <c r="F60">
-        <v>0.1709377942590363</v>
+        <v>-0.03228130892469198</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.110302406245974</v>
+        <v>-0.082900518119032</v>
       </c>
       <c r="C61">
-        <v>0.06238921998357318</v>
+        <v>-0.01299364423194041</v>
       </c>
       <c r="D61">
-        <v>0.05537557160072936</v>
+        <v>-0.114216929577592</v>
       </c>
       <c r="E61">
-        <v>0.08536195113120865</v>
+        <v>0.04289869882176708</v>
       </c>
       <c r="F61">
-        <v>0.02769468811263304</v>
+        <v>0.01492716594553688</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.156770885811787</v>
+        <v>-0.1702867964103091</v>
       </c>
       <c r="C62">
-        <v>0.04951899853407027</v>
+        <v>-0.01775598528416732</v>
       </c>
       <c r="D62">
-        <v>0.02041366896845565</v>
+        <v>-0.0114773438716608</v>
       </c>
       <c r="E62">
-        <v>-0.002959131939310256</v>
+        <v>0.03659336418009339</v>
       </c>
       <c r="F62">
-        <v>0.05168725319299834</v>
+        <v>0.02052584403452614</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03860439205643075</v>
+        <v>-0.04238624817923405</v>
       </c>
       <c r="C63">
-        <v>-0.004018817889662565</v>
+        <v>-0.00300394481131683</v>
       </c>
       <c r="D63">
-        <v>0.00800984724924843</v>
+        <v>-0.05202263946868921</v>
       </c>
       <c r="E63">
-        <v>0.002182740497394251</v>
+        <v>0.02288832034501886</v>
       </c>
       <c r="F63">
-        <v>-0.04217881274474318</v>
+        <v>0.006460583245145624</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0951783263106307</v>
+        <v>-0.1118555539825745</v>
       </c>
       <c r="C64">
-        <v>0.02581581972129765</v>
+        <v>-0.01117227643477289</v>
       </c>
       <c r="D64">
-        <v>0.004281148426613663</v>
+        <v>-0.04342613320387186</v>
       </c>
       <c r="E64">
-        <v>0.0070586354244059</v>
+        <v>0.02095629907005193</v>
       </c>
       <c r="F64">
-        <v>0.06647200617036049</v>
+        <v>0.02481573117518377</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1118292027896768</v>
+        <v>-0.1454961494090111</v>
       </c>
       <c r="C65">
-        <v>-0.00550290270237673</v>
+        <v>-0.03120941073709426</v>
       </c>
       <c r="D65">
-        <v>0.007718255733539334</v>
+        <v>0.04423488148710275</v>
       </c>
       <c r="E65">
-        <v>0.005018719383892783</v>
+        <v>-0.0009310845109324781</v>
       </c>
       <c r="F65">
-        <v>-0.06248915090018267</v>
+        <v>0.04670951690701799</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1374271925419081</v>
+        <v>-0.1290973953166768</v>
       </c>
       <c r="C66">
-        <v>0.1167159006265343</v>
+        <v>-0.01458315553627297</v>
       </c>
       <c r="D66">
-        <v>0.07413332713688341</v>
+        <v>-0.1423751268022748</v>
       </c>
       <c r="E66">
-        <v>0.11503680399243</v>
+        <v>0.06901827092679888</v>
       </c>
       <c r="F66">
-        <v>0.01702905229052681</v>
+        <v>0.03201422115706925</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0656097520956621</v>
+        <v>-0.06212362946700358</v>
       </c>
       <c r="C67">
-        <v>0.04391428522913246</v>
+        <v>-0.003246283374025864</v>
       </c>
       <c r="D67">
-        <v>0.08288808580994522</v>
+        <v>-0.05335201222499463</v>
       </c>
       <c r="E67">
-        <v>-0.01750147382303651</v>
+        <v>0.01766828272755955</v>
       </c>
       <c r="F67">
-        <v>0.02297029078936885</v>
+        <v>-0.04138892180607015</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1040996888356345</v>
+        <v>-0.1169131866003347</v>
       </c>
       <c r="C68">
-        <v>-0.2650702301943935</v>
+        <v>-0.02690229231931492</v>
       </c>
       <c r="D68">
-        <v>-0.003467622425297332</v>
+        <v>0.2618306315462595</v>
       </c>
       <c r="E68">
-        <v>0.04024320241740267</v>
+        <v>-0.08755471159573458</v>
       </c>
       <c r="F68">
-        <v>-0.03414267683745933</v>
+        <v>0.03296006190039141</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03258621314724071</v>
+        <v>-0.03947532572780847</v>
       </c>
       <c r="C69">
-        <v>-0.007166947993829962</v>
+        <v>-0.0009200434054754111</v>
       </c>
       <c r="D69">
-        <v>0.03140190235287545</v>
+        <v>-0.009183923815619104</v>
       </c>
       <c r="E69">
-        <v>-0.001233875750874751</v>
+        <v>0.0241200639290849</v>
       </c>
       <c r="F69">
-        <v>0.0179404455905171</v>
+        <v>-0.01182390879924532</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03317106743273131</v>
+        <v>-0.06262247403385472</v>
       </c>
       <c r="C70">
-        <v>-0.00490523172384959</v>
+        <v>0.02848107768324241</v>
       </c>
       <c r="D70">
-        <v>0.04133814270848566</v>
+        <v>-0.0297164786733812</v>
       </c>
       <c r="E70">
-        <v>0.03892542225191294</v>
+        <v>-0.05056997742077329</v>
       </c>
       <c r="F70">
-        <v>0.04139631311208709</v>
+        <v>-0.2791492129251649</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.121593991282264</v>
+        <v>-0.1362411306878607</v>
       </c>
       <c r="C71">
-        <v>-0.2859943088739689</v>
+        <v>-0.03113442612169753</v>
       </c>
       <c r="D71">
-        <v>0.009040222483807705</v>
+        <v>0.2774084844640382</v>
       </c>
       <c r="E71">
-        <v>0.03259490777222759</v>
+        <v>-0.09618072948864417</v>
       </c>
       <c r="F71">
-        <v>0.01252146404692357</v>
+        <v>0.03877189259722806</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1451367447921359</v>
+        <v>-0.1409276299798172</v>
       </c>
       <c r="C72">
-        <v>0.01093125414734099</v>
+        <v>-0.02460551702859118</v>
       </c>
       <c r="D72">
-        <v>-0.0003560685580990917</v>
+        <v>-0.004834309054301526</v>
       </c>
       <c r="E72">
-        <v>-0.01347635318447393</v>
+        <v>0.04506500106383014</v>
       </c>
       <c r="F72">
-        <v>-0.009335770186282996</v>
+        <v>0.02310213496205012</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2234336873416601</v>
+        <v>-0.2032541331461032</v>
       </c>
       <c r="C73">
-        <v>0.02794997588824673</v>
+        <v>-0.01176825483231923</v>
       </c>
       <c r="D73">
-        <v>0.06235647022949239</v>
+        <v>-0.01650635971786764</v>
       </c>
       <c r="E73">
-        <v>0.06276017971987584</v>
+        <v>0.06241813689783585</v>
       </c>
       <c r="F73">
-        <v>0.1211146883691339</v>
+        <v>0.03250877432091837</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1198264337989342</v>
+        <v>-0.09488178734312894</v>
       </c>
       <c r="C74">
-        <v>0.06050817071303032</v>
+        <v>-0.01218792684162448</v>
       </c>
       <c r="D74">
-        <v>0.03784980855962505</v>
+        <v>-0.01989863847587535</v>
       </c>
       <c r="E74">
-        <v>-0.008243736962994384</v>
+        <v>0.04814842187676328</v>
       </c>
       <c r="F74">
-        <v>0.02341787645201754</v>
+        <v>0.04719882097192937</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1177195861111964</v>
+        <v>-0.1297716519105056</v>
       </c>
       <c r="C75">
-        <v>0.05677788143629664</v>
+        <v>-0.02639321912241774</v>
       </c>
       <c r="D75">
-        <v>0.00976319859538358</v>
+        <v>-0.03422651366985251</v>
       </c>
       <c r="E75">
-        <v>-0.009060027822971254</v>
+        <v>0.06048843060398427</v>
       </c>
       <c r="F75">
-        <v>0.001810626738617511</v>
+        <v>0.01213870175002749</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02239894686440936</v>
+        <v>-0.003902961918398854</v>
       </c>
       <c r="C76">
-        <v>-0.0155354721203966</v>
+        <v>-0.0009218441656355139</v>
       </c>
       <c r="D76">
-        <v>0.01287981097602375</v>
+        <v>0.002616267063435725</v>
       </c>
       <c r="E76">
-        <v>0.01140948013030161</v>
+        <v>0.0006261801540990099</v>
       </c>
       <c r="F76">
-        <v>0.01880815423458479</v>
+        <v>0.004111665217293879</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06685237160824276</v>
+        <v>-0.07783065998653409</v>
       </c>
       <c r="C77">
-        <v>0.06126511180543343</v>
+        <v>-0.009052645230118951</v>
       </c>
       <c r="D77">
-        <v>-0.02435291510702822</v>
+        <v>-0.1160272345934745</v>
       </c>
       <c r="E77">
-        <v>-0.004717257510090111</v>
+        <v>0.03797342665309991</v>
       </c>
       <c r="F77">
-        <v>0.05365600434998019</v>
+        <v>0.03229795233657016</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1175442464267446</v>
+        <v>-0.1044642962649437</v>
       </c>
       <c r="C78">
-        <v>0.03177947274224917</v>
+        <v>-0.04067807644720704</v>
       </c>
       <c r="D78">
-        <v>0.09877665011797906</v>
+        <v>-0.1155695334343481</v>
       </c>
       <c r="E78">
-        <v>-0.3274625766262311</v>
+        <v>0.07962530172159364</v>
       </c>
       <c r="F78">
-        <v>-0.2911427222741645</v>
+        <v>0.07476092361660786</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1365538544330053</v>
+        <v>-0.1642309611238706</v>
       </c>
       <c r="C79">
-        <v>0.0542369781538854</v>
+        <v>-0.02048514381713161</v>
       </c>
       <c r="D79">
-        <v>-0.01248118032994683</v>
+        <v>-0.01964443428891803</v>
       </c>
       <c r="E79">
-        <v>0.002325039335590783</v>
+        <v>0.04944187663894859</v>
       </c>
       <c r="F79">
-        <v>0.02731920367624573</v>
+        <v>0.003798587508142508</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07308258240785609</v>
+        <v>-0.08040458572824609</v>
       </c>
       <c r="C80">
-        <v>0.06791054677989018</v>
+        <v>0.0009183333602447295</v>
       </c>
       <c r="D80">
-        <v>0.07593698830007359</v>
+        <v>-0.0589153987932529</v>
       </c>
       <c r="E80">
-        <v>0.02971126411440842</v>
+        <v>0.03699277711052138</v>
       </c>
       <c r="F80">
-        <v>0.02723291420288829</v>
+        <v>-0.01426060629834535</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1404834126260003</v>
+        <v>-0.1235309740271293</v>
       </c>
       <c r="C81">
-        <v>0.07148951401043803</v>
+        <v>-0.03033303348446192</v>
       </c>
       <c r="D81">
-        <v>0.02035215689965284</v>
+        <v>-0.01833775715184666</v>
       </c>
       <c r="E81">
-        <v>-0.007213244568803505</v>
+        <v>0.05986815771630975</v>
       </c>
       <c r="F81">
-        <v>0.02478640604385375</v>
+        <v>0.005049413571722863</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1598372554344794</v>
+        <v>-0.1645340011892188</v>
       </c>
       <c r="C82">
-        <v>0.0507596678715866</v>
+        <v>-0.02206760249164496</v>
       </c>
       <c r="D82">
-        <v>0.02789876410590477</v>
+        <v>-0.01378535017935266</v>
       </c>
       <c r="E82">
-        <v>0.02945314659160493</v>
+        <v>0.03562704678450841</v>
       </c>
       <c r="F82">
-        <v>0.04194262790172758</v>
+        <v>0.0652406415936467</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08763410168979581</v>
+        <v>-0.0626705395410015</v>
       </c>
       <c r="C83">
-        <v>0.1181298756162965</v>
+        <v>-0.003185753661295612</v>
       </c>
       <c r="D83">
-        <v>-0.002281330370105073</v>
+        <v>-0.04998320718815541</v>
       </c>
       <c r="E83">
-        <v>-0.03138171118355541</v>
+        <v>0.004780740810692111</v>
       </c>
       <c r="F83">
-        <v>-0.01753056376698962</v>
+        <v>-0.04216305005642054</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06075213696197235</v>
+        <v>-0.05917699703229055</v>
       </c>
       <c r="C84">
-        <v>-0.01985352036668873</v>
+        <v>-0.01082424568820147</v>
       </c>
       <c r="D84">
-        <v>-0.0210657391441806</v>
+        <v>-0.06435950674896293</v>
       </c>
       <c r="E84">
-        <v>0.06613532424020778</v>
+        <v>0.002975742274988192</v>
       </c>
       <c r="F84">
-        <v>0.04809350702615996</v>
+        <v>0.01087347395933369</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1252049407598843</v>
+        <v>-0.1391710057837171</v>
       </c>
       <c r="C85">
-        <v>0.0414440927130206</v>
+        <v>-0.02609775169971775</v>
       </c>
       <c r="D85">
-        <v>0.006798098600076244</v>
+        <v>-0.01496665094434322</v>
       </c>
       <c r="E85">
-        <v>0.001394508795871286</v>
+        <v>0.04148059927926932</v>
       </c>
       <c r="F85">
-        <v>0.04098291642132793</v>
+        <v>0.04499647941416329</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1608374842919658</v>
+        <v>-0.09498916079205741</v>
       </c>
       <c r="C86">
-        <v>0.09995592513281303</v>
+        <v>0.006666415485334474</v>
       </c>
       <c r="D86">
-        <v>-0.940745726080167</v>
+        <v>-0.02469998026840258</v>
       </c>
       <c r="E86">
-        <v>-0.04381525373341941</v>
+        <v>0.1505478300579678</v>
       </c>
       <c r="F86">
-        <v>-0.06838555905987387</v>
+        <v>-0.86573439961305</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1253543356621763</v>
+        <v>-0.09621132163704972</v>
       </c>
       <c r="C87">
-        <v>0.1193121279960158</v>
+        <v>-0.02213608020731434</v>
       </c>
       <c r="D87">
-        <v>0.005186287222978602</v>
+        <v>-0.08914312711799156</v>
       </c>
       <c r="E87">
-        <v>0.002552143530284453</v>
+        <v>-0.05339425921353699</v>
       </c>
       <c r="F87">
-        <v>0.04229718806570709</v>
+        <v>0.08324557178931848</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0530108509380666</v>
+        <v>-0.06081764047974424</v>
       </c>
       <c r="C88">
-        <v>0.03515567473927811</v>
+        <v>-0.002743035916866776</v>
       </c>
       <c r="D88">
-        <v>0.02845846295974046</v>
+        <v>-0.05405184263838504</v>
       </c>
       <c r="E88">
-        <v>0.05679047106241038</v>
+        <v>0.02790397284974963</v>
       </c>
       <c r="F88">
-        <v>0.00584255501772567</v>
+        <v>0.007402827866451383</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1728394017503661</v>
+        <v>-0.1366498301796099</v>
       </c>
       <c r="C89">
-        <v>-0.3627251834113433</v>
+        <v>-0.009509821208603293</v>
       </c>
       <c r="D89">
-        <v>0.003468117502800734</v>
+        <v>0.2556678332791252</v>
       </c>
       <c r="E89">
-        <v>-0.03954095648298813</v>
+        <v>-0.09204343676073692</v>
       </c>
       <c r="F89">
-        <v>0.01628808418991798</v>
+        <v>0.01930414519806488</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1328989296583617</v>
+        <v>-0.1473969185916109</v>
       </c>
       <c r="C90">
-        <v>-0.2711464251850101</v>
+        <v>-0.0269245760808477</v>
       </c>
       <c r="D90">
-        <v>-0.00619085655869667</v>
+        <v>0.2660717661894463</v>
       </c>
       <c r="E90">
-        <v>0.05098279089764625</v>
+        <v>-0.1085368444007965</v>
       </c>
       <c r="F90">
-        <v>0.01299463179011728</v>
+        <v>0.02254999618014347</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08337835553415275</v>
+        <v>-0.1191863547876212</v>
       </c>
       <c r="C91">
-        <v>0.04463183537926799</v>
+        <v>-0.01676515073102833</v>
       </c>
       <c r="D91">
-        <v>-0.0109898431319051</v>
+        <v>0.0082760756731409</v>
       </c>
       <c r="E91">
-        <v>-0.000591355854043718</v>
+        <v>0.05694808722130625</v>
       </c>
       <c r="F91">
-        <v>0.0321330595476318</v>
+        <v>-0.01904886212563523</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1462370668741426</v>
+        <v>-0.1504727100422111</v>
       </c>
       <c r="C92">
-        <v>-0.3212510157269541</v>
+        <v>-0.01872716333177179</v>
       </c>
       <c r="D92">
-        <v>0.0006482261089606464</v>
+        <v>0.295975019964047</v>
       </c>
       <c r="E92">
-        <v>-0.01400153996536817</v>
+        <v>-0.1049461881807384</v>
       </c>
       <c r="F92">
-        <v>-0.001070295429530975</v>
+        <v>0.01793848674895145</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.13503624663232</v>
+        <v>-0.1517749081712161</v>
       </c>
       <c r="C93">
-        <v>-0.3182083426832126</v>
+        <v>-0.02302248377236445</v>
       </c>
       <c r="D93">
-        <v>-0.02758691739073414</v>
+        <v>0.2667818512246787</v>
       </c>
       <c r="E93">
-        <v>0.07897200752845286</v>
+        <v>-0.07559717238197393</v>
       </c>
       <c r="F93">
-        <v>0.01679805772215652</v>
+        <v>0.01668200156534739</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1396263340726522</v>
+        <v>-0.1330519756759718</v>
       </c>
       <c r="C94">
-        <v>0.05957200123327567</v>
+        <v>-0.02361872297626463</v>
       </c>
       <c r="D94">
-        <v>0.0470889357995713</v>
+        <v>-0.04573929813537067</v>
       </c>
       <c r="E94">
-        <v>-0.0214489854984084</v>
+        <v>0.06080439597063694</v>
       </c>
       <c r="F94">
-        <v>0.02836130700854388</v>
+        <v>0.03046339718762338</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1111761417200663</v>
+        <v>-0.1250180532920694</v>
       </c>
       <c r="C95">
-        <v>0.02728020275945924</v>
+        <v>-0.004821092142371372</v>
       </c>
       <c r="D95">
-        <v>0.02402038794310882</v>
+        <v>-0.0907197112166552</v>
       </c>
       <c r="E95">
-        <v>-0.03804658310586583</v>
+        <v>0.0442577584882496</v>
       </c>
       <c r="F95">
-        <v>0.03826738523460623</v>
+        <v>-0.01457061563051805</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01314060661965915</v>
+        <v>-0.09851515095164426</v>
       </c>
       <c r="C96">
-        <v>0.001482514845619571</v>
+        <v>0.988837269568105</v>
       </c>
       <c r="D96">
-        <v>-0.003974547371291763</v>
+        <v>0.03377458762368125</v>
       </c>
       <c r="E96">
-        <v>-0.007592023038838313</v>
+        <v>0.05831630885115938</v>
       </c>
       <c r="F96">
-        <v>-0.005091801256762287</v>
+        <v>0.04676378168244603</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1767784702354139</v>
+        <v>-0.1884852899506783</v>
       </c>
       <c r="C97">
-        <v>0.05809714869982797</v>
+        <v>0.01070771288413144</v>
       </c>
       <c r="D97">
-        <v>0.08175458176099787</v>
+        <v>0.007615320540023093</v>
       </c>
       <c r="E97">
-        <v>-0.1230253253832263</v>
+        <v>0.0182341355696087</v>
       </c>
       <c r="F97">
-        <v>-0.8503146061628261</v>
+        <v>-0.1665646355951768</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2451391465426581</v>
+        <v>-0.2051119610438579</v>
       </c>
       <c r="C98">
-        <v>0.01660642026202668</v>
+        <v>-0.007095118961328215</v>
       </c>
       <c r="D98">
-        <v>-0.01187688549098654</v>
+        <v>-0.01071602581645677</v>
       </c>
       <c r="E98">
-        <v>-0.08506953226416569</v>
+        <v>-0.09815000690541699</v>
       </c>
       <c r="F98">
-        <v>0.02289002143781262</v>
+        <v>-0.1108788601577609</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04225391384437834</v>
+        <v>-0.05590442887327593</v>
       </c>
       <c r="C99">
-        <v>-0.01400051322673571</v>
+        <v>0.004035682379948961</v>
       </c>
       <c r="D99">
-        <v>0.04118262785348217</v>
+        <v>-0.03606593875275473</v>
       </c>
       <c r="E99">
-        <v>-0.02430435079251096</v>
+        <v>0.02683664955912196</v>
       </c>
       <c r="F99">
-        <v>0.01704154379021691</v>
+        <v>0.003608962566848539</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.03003539140939444</v>
+        <v>-0.1222154892878706</v>
       </c>
       <c r="C100">
-        <v>0.07301762410426381</v>
+        <v>0.05185896976358104</v>
       </c>
       <c r="D100">
-        <v>0.1113769053215773</v>
+        <v>-0.3485365436074288</v>
       </c>
       <c r="E100">
-        <v>0.05799489638841758</v>
+        <v>-0.893898410390266</v>
       </c>
       <c r="F100">
-        <v>-0.04011791664997755</v>
+        <v>-0.07192735541089142</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03328581223125295</v>
+        <v>-0.02713817973420423</v>
       </c>
       <c r="C101">
-        <v>0.020212505591285</v>
+        <v>-0.008703211291747434</v>
       </c>
       <c r="D101">
-        <v>0.01147664094553061</v>
+        <v>-0.03031939501314093</v>
       </c>
       <c r="E101">
-        <v>0.03796351418259776</v>
+        <v>0.0116747503937522</v>
       </c>
       <c r="F101">
-        <v>0.03866302962400587</v>
+        <v>-0.01325276598331962</v>
       </c>
     </row>
     <row r="102" spans="1:6">
